--- a/data/UI测试.xlsx
+++ b/data/UI测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>TestCase</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>购物车411</t>
   </si>
   <si>
     <t>Tttt</t>
@@ -51,6 +48,14 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -432,7 +437,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,7 +449,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -456,44 +461,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="3"/>
     </row>
   </sheetData>
